--- a/other/采购明细单+携手新征程+李彦硕.xlsx
+++ b/other/采购明细单+携手新征程+李彦硕.xlsx
@@ -231,15 +231,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,12 +714,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,12 +872,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,27 +887,9 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,9 +899,6 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,9 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1296,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1387,19 +1363,20 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="8">
         <v>134</v>
       </c>
       <c r="F5" s="8">
+        <f>C5*E5</f>
         <v>134</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1413,19 +1390,20 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8">
         <v>51.8</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" ref="F6:F14" si="0">C6*E6</f>
         <v>51.8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1439,16 +1417,17 @@
       <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8">
         <v>21</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1465,16 +1444,17 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8">
         <v>35.8</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="0"/>
         <v>35.8</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1491,19 +1471,20 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="8">
         <v>890</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1517,19 +1498,20 @@
       <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="13">
         <v>158</v>
       </c>
-      <c r="F10" s="13">
-        <v>158</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1543,19 +1525,20 @@
       <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="13">
         <v>101</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1569,19 +1552,20 @@
       <c r="C12" s="13">
         <v>3</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="13">
         <v>79</v>
       </c>
-      <c r="F12" s="13">
-        <v>79</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1595,118 +1579,120 @@
       <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="13">
         <v>130</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:8">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>28</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="16">
         <f>SUM(F5:F15)</f>
-        <v>1628.6</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+        <v>1944.6</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" ht="47" customHeight="1" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1728,6 +1714,7 @@
     <hyperlink ref="H11" r:id="rId3" display="https://m.tb.cn/h.g1QnUFSiQgaUAbk?tk=LejVWtOL1gT"/>
     <hyperlink ref="H5" r:id="rId4" display="https://m.tb.cn/h.g1wPiC6tc2j6NsK?tk=yi0aWtOqd9j"/>
     <hyperlink ref="H12" r:id="rId4" display="https://m.tb.cn/h.g1wPiC6tc2j6NsK?tk=yi0aWtOqd9j"/>
+    <hyperlink ref="H9" r:id="rId5" display="https://m.tb.cn/h.g1aUMLmTvWcA28U?tk=ItGpWtOQddj" tooltip="https://m.tb.cn/h.g1aUMLmTvWcA28U?tk=ItGpWtOQddj"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait"/>
